--- a/StructureDefinition-Immunization-uc2.xlsx
+++ b/StructureDefinition-Immunization-uc2.xlsx
@@ -325,11 +325,11 @@
     <t>Immunization.product</t>
   </si>
   <si>
-    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product-uc1
+    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product-uc2
 </t>
   </si>
   <si>
-    <t>[R] Medicinal Immunizing Product</t>
+    <t>[M] Medicinal Immunizing Product</t>
   </si>
   <si>
     <t>A manufactured product that is a representation of a brand specific Immunizing Agent authorized for use in a jurisdiction.  
